--- a/data/testData.xlsx
+++ b/data/testData.xlsx
@@ -1,44 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Desktop\prjmtch\S1-25_SEMTZG628T\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F3F20A-93FA-4E81-8E1E-23511EC30BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>SerialNo</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>testing2406@mailinator.com</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>6234533321</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Das</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>2.Dec.2025</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>3.Dec.2025</t>
+  </si>
+  <si>
+    <t>Wifi</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -65,13 +143,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,112 +482,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>SerialNo</v>
-      </c>
-      <c r="B1" t="str">
-        <v>FirstName</v>
-      </c>
-      <c r="C1" t="str">
-        <v>LastName</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Email</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Country</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Currency</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Phone</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Filter</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Budget</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Room</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Member</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Destination</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Arrival</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Departure</v>
-      </c>
-      <c r="O1" t="str">
-        <v>Rules</v>
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
+    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Randi</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Magi</v>
-      </c>
-      <c r="D2" t="str">
-        <v>testing2406@mailinator.com</v>
-      </c>
-      <c r="E2" t="str">
-        <v>India</v>
-      </c>
-      <c r="F2" t="str">
-        <v>INR</v>
-      </c>
-      <c r="G2" t="str">
-        <v>6234533321</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Free Wifi,Parking</v>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
       </c>
       <c r="I2">
         <v>6000</v>
       </c>
       <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Hyderabad</v>
-      </c>
-      <c r="M2" t="str">
-        <v>22.Oct.2025</v>
-      </c>
-      <c r="N2" t="str">
-        <v>23.Oct.2025</v>
-      </c>
-      <c r="O2" t="str" xml:space="preserve">
-        <v xml:space="preserve">  Check-in  From 12:00 PM
-  Check-out  Until 11:00 AM
-  Cancellation/ prepayment  Children 6 and above will be charged as adults at this property.  To see correct prices and occupancy info, add the number and ages of children in your group to your search.
-  Crib and extra bed policies</v>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O2"/>
+    <ignoredError sqref="A1:O1 A2 D2:G2 I2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/testData.xlsx
+++ b/data/testData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Desktop\prjmtch\S1-25_SEMTZG628T\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Desktop\prjmtch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F3F20A-93FA-4E81-8E1E-23511EC30BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7C8AAE-A750-42D1-9FAF-6A37D322E4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>SerialNo</t>
   </si>
@@ -34,89 +34,74 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Phone</t>
+  </si>
+  <si>
     <t>Country</t>
   </si>
   <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
     <t>Currency</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>Member</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>Arrival</t>
-  </si>
-  <si>
-    <t>Departure</t>
-  </si>
-  <si>
-    <t>Rules</t>
-  </si>
-  <si>
-    <t>testing2406@mailinator.com</t>
-  </si>
-  <si>
-    <t>India</t>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Marta75@mailinator.com</t>
+  </si>
+  <si>
+    <t>(255) 774-2133</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Swimming Pool</t>
+  </si>
+  <si>
+    <t>10.Nov.2025</t>
+  </si>
+  <si>
+    <t>16.Nov.2025</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
   </si>
   <si>
     <t>INR</t>
-  </si>
-  <si>
-    <t>6234533321</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Das</t>
-  </si>
-  <si>
-    <t>Kolkata</t>
-  </si>
-  <si>
-    <t>2.Dec.2025</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>3.Dec.2025</t>
-  </si>
-  <si>
-    <t>Wifi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -483,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,49 +519,40 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>20000</v>
+      </c>
+      <c r="K2" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2">
-        <v>6000</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
       </c>
       <c r="L2" t="s">
         <v>21</v>
@@ -585,14 +561,13 @@
         <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:O1 A2 D2:G2 I2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:N1 A2:G2 K2:L2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>